--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.1129962756393</v>
+        <v>629.9291343616844</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.2665795950916</v>
+        <v>861.8968321457096</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.5169270863991</v>
+        <v>779.6386081655238</v>
       </c>
       <c r="AD2" t="n">
-        <v>557112.9962756393</v>
+        <v>629929.1343616844</v>
       </c>
       <c r="AE2" t="n">
-        <v>762266.5795950915</v>
+        <v>861896.8321457095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.444728497848516e-06</v>
+        <v>2.442385207552575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02391975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>689516.9270863991</v>
+        <v>779638.6081655239</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.7918355459128</v>
+        <v>393.7790052227963</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.6546681854956</v>
+        <v>538.7858072494657</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.0223630113202</v>
+        <v>487.3648459962058</v>
       </c>
       <c r="AD3" t="n">
-        <v>341791.8355459128</v>
+        <v>393779.0052227963</v>
       </c>
       <c r="AE3" t="n">
-        <v>467654.6681854955</v>
+        <v>538785.8072494657</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007410570113919e-06</v>
+        <v>3.393627168864083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>423022.3630113202</v>
+        <v>487364.8459962058</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.6581478078877</v>
+        <v>330.316174134762</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.9548125294644</v>
+        <v>451.9531619723084</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.2608795442123</v>
+        <v>408.8193865139173</v>
       </c>
       <c r="AD4" t="n">
-        <v>288658.1478078877</v>
+        <v>330316.174134762</v>
       </c>
       <c r="AE4" t="n">
-        <v>394954.8125294644</v>
+        <v>451953.1619723084</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229405821137427e-06</v>
+        <v>3.768921155280338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.089506172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>357260.8795442124</v>
+        <v>408819.3865139172</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.959877621731</v>
+        <v>305.9469577900667</v>
       </c>
       <c r="AB5" t="n">
-        <v>347.479108480957</v>
+        <v>418.6101250755474</v>
       </c>
       <c r="AC5" t="n">
-        <v>314.3161900576299</v>
+        <v>378.6585622613369</v>
       </c>
       <c r="AD5" t="n">
-        <v>253959.877621731</v>
+        <v>305946.9577900667</v>
       </c>
       <c r="AE5" t="n">
-        <v>347479.108480957</v>
+        <v>418610.1250755474</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.351878715716755e-06</v>
+        <v>3.975967660206456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.614969135802468</v>
       </c>
       <c r="AH5" t="n">
-        <v>314316.1900576298</v>
+        <v>378658.5622613369</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>244.3834300796076</v>
+        <v>285.9561155519134</v>
       </c>
       <c r="AB6" t="n">
-        <v>334.3761904707821</v>
+        <v>391.2577727915902</v>
       </c>
       <c r="AC6" t="n">
-        <v>302.4637961522811</v>
+        <v>353.9166800900932</v>
       </c>
       <c r="AD6" t="n">
-        <v>244383.4300796076</v>
+        <v>285956.1155519134</v>
       </c>
       <c r="AE6" t="n">
-        <v>334376.1904707822</v>
+        <v>391257.7727915903</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391004919173702e-06</v>
+        <v>4.042112448444003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>302463.7961522811</v>
+        <v>353916.6800900932</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.057790121857</v>
+        <v>482.5159458389972</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.4780883203009</v>
+        <v>660.199604198079</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.3643900665979</v>
+        <v>597.1910805693777</v>
       </c>
       <c r="AD2" t="n">
-        <v>422057.790121857</v>
+        <v>482515.9458389972</v>
       </c>
       <c r="AE2" t="n">
-        <v>577478.0883203009</v>
+        <v>660199.604198079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.709370433932837e-06</v>
+        <v>2.960272345942363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2608024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>522364.390066598</v>
+        <v>597191.0805693778</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.8804290099088</v>
+        <v>328.1626760286172</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.2082621906738</v>
+        <v>449.0066508578498</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.9217192728426</v>
+        <v>406.1540862847682</v>
       </c>
       <c r="AD3" t="n">
-        <v>277880.4290099088</v>
+        <v>328162.6760286172</v>
       </c>
       <c r="AE3" t="n">
-        <v>380208.2621906738</v>
+        <v>449006.6508578497</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235986701170894e-06</v>
+        <v>3.872261661939544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>343921.7192728426</v>
+        <v>406154.0862847682</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.8385631718695</v>
+        <v>283.2060615366015</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.5799942440411</v>
+        <v>387.4950275640199</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.1751667233145</v>
+        <v>350.513045985996</v>
       </c>
       <c r="AD4" t="n">
-        <v>232838.5631718695</v>
+        <v>283206.0615366015</v>
       </c>
       <c r="AE4" t="n">
-        <v>318579.9942440411</v>
+        <v>387495.0275640199</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440157126455184e-06</v>
+        <v>4.225842168440875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.587962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>288175.1667233145</v>
+        <v>350513.045985996</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.8979970856282</v>
+        <v>268.1750171150509</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.8200937624564</v>
+        <v>366.9288894635755</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.0604216561101</v>
+        <v>331.9097112411018</v>
       </c>
       <c r="AD5" t="n">
-        <v>227897.9970856282</v>
+        <v>268175.0171150509</v>
       </c>
       <c r="AE5" t="n">
-        <v>311820.0937624564</v>
+        <v>366928.8894635755</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.468354159643727e-06</v>
+        <v>4.274673536954497e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.491512345679013</v>
       </c>
       <c r="AH5" t="n">
-        <v>282060.4216561101</v>
+        <v>331909.7112411018</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.3682665641746</v>
+        <v>237.8298185235866</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.5209460539145</v>
+        <v>325.4092500149023</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.2256136586862</v>
+        <v>294.3526479083275</v>
       </c>
       <c r="AD2" t="n">
-        <v>201368.2665641746</v>
+        <v>237829.8185235866</v>
       </c>
       <c r="AE2" t="n">
-        <v>275520.9460539146</v>
+        <v>325409.2500149023</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57839322746582e-06</v>
+        <v>4.878874830080828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.070216049382717</v>
       </c>
       <c r="AH2" t="n">
-        <v>249225.6136586862</v>
+        <v>294352.6479083275</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.6897141674659</v>
+        <v>235.1812013764705</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.5418354433764</v>
+        <v>321.785295185478</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.7715269379902</v>
+        <v>291.0745582415698</v>
       </c>
       <c r="AD3" t="n">
-        <v>189689.7141674659</v>
+        <v>235181.2013764704</v>
       </c>
       <c r="AE3" t="n">
-        <v>259541.8354433764</v>
+        <v>321785.2951854781</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.609190146408535e-06</v>
+        <v>4.937149227900795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.962191358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>234771.5269379902</v>
+        <v>291074.5582415698</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.7163642339663</v>
+        <v>316.114266782808</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.6695844742248</v>
+        <v>432.5214857894317</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.5797153595067</v>
+        <v>391.2422422334055</v>
       </c>
       <c r="AD2" t="n">
-        <v>268716.3642339663</v>
+        <v>316114.266782808</v>
       </c>
       <c r="AE2" t="n">
-        <v>367669.5844742248</v>
+        <v>432521.4857894317</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.229517578432047e-06</v>
+        <v>4.061696832913423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>332579.7153595067</v>
+        <v>391242.2422334055</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.0900818864571</v>
+        <v>249.4878949267471</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.5085656221055</v>
+        <v>341.3603444677307</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.1189762014221</v>
+        <v>308.7813922940848</v>
       </c>
       <c r="AD3" t="n">
-        <v>202090.0818864571</v>
+        <v>249487.8949267471</v>
       </c>
       <c r="AE3" t="n">
-        <v>276508.5656221055</v>
+        <v>341360.3444677307</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578659033667491e-06</v>
+        <v>4.697756739633647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.676697530864196</v>
       </c>
       <c r="AH3" t="n">
-        <v>250118.9762014221</v>
+        <v>308781.3922940848</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.4190258909376</v>
+        <v>233.2616835256814</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.1714678015067</v>
+        <v>319.1589261788787</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.4365066640461</v>
+        <v>288.6988462068275</v>
       </c>
       <c r="AD2" t="n">
-        <v>189419.0258909376</v>
+        <v>233261.6835256814</v>
       </c>
       <c r="AE2" t="n">
-        <v>259171.4678015066</v>
+        <v>319158.9261788788</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585826448653896e-06</v>
+        <v>5.067386684870567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.394290123456791</v>
       </c>
       <c r="AH2" t="n">
-        <v>234436.5066640461</v>
+        <v>288698.8462068275</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.586617574704</v>
+        <v>519.731222150245</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.7760004105528</v>
+        <v>711.1191870692452</v>
       </c>
       <c r="AC2" t="n">
-        <v>555.1980803713959</v>
+        <v>643.250969917403</v>
       </c>
       <c r="AD2" t="n">
-        <v>448586.617574704</v>
+        <v>519731.222150245</v>
       </c>
       <c r="AE2" t="n">
-        <v>613776.0004105528</v>
+        <v>711119.1870692451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.637697067403774e-06</v>
+        <v>2.817627027701009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>555198.0803713959</v>
+        <v>643250.9699174031</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.2261351055615</v>
+        <v>341.1046675556419</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.1002019248591</v>
+        <v>466.7144546254947</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.2015159867835</v>
+        <v>422.1718821138878</v>
       </c>
       <c r="AD3" t="n">
-        <v>290226.1351055615</v>
+        <v>341104.6675556419</v>
       </c>
       <c r="AE3" t="n">
-        <v>397100.2019248591</v>
+        <v>466714.4546254947</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179557976972489e-06</v>
+        <v>3.749888539578675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.529320987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>359201.5159867835</v>
+        <v>422171.8821138878</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.1762741012951</v>
+        <v>295.969465696807</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.4609946390642</v>
+        <v>404.9584802176644</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.4450681332747</v>
+        <v>366.3098112284864</v>
       </c>
       <c r="AD4" t="n">
-        <v>245176.2741012952</v>
+        <v>295969.465696807</v>
       </c>
       <c r="AE4" t="n">
-        <v>335460.9946390641</v>
+        <v>404958.4802176644</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377856241076381e-06</v>
+        <v>4.091056976407515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.734567901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>303445.0681332747</v>
+        <v>366309.8112284864</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.1545582949443</v>
+        <v>272.7721329089909</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.644108595267</v>
+        <v>373.2188661032794</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.3286006873354</v>
+        <v>337.59938133835</v>
       </c>
       <c r="AD5" t="n">
-        <v>232154.5582949443</v>
+        <v>272772.1329089909</v>
       </c>
       <c r="AE5" t="n">
-        <v>317644.108595267</v>
+        <v>373218.8661032794</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.446988733910863e-06</v>
+        <v>4.209998131142305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.487654320987653</v>
       </c>
       <c r="AH5" t="n">
-        <v>287328.6006873354</v>
+        <v>337599.38133835</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.0388520857288</v>
+        <v>228.1262295003346</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.1783207615929</v>
+        <v>312.1323714211611</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.015337166185</v>
+        <v>282.3428959733526</v>
       </c>
       <c r="AD2" t="n">
-        <v>185038.8520857288</v>
+        <v>228126.2295003346</v>
       </c>
       <c r="AE2" t="n">
-        <v>253178.3207615929</v>
+        <v>312132.371421161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544931231796717e-06</v>
+        <v>5.10172280157031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.768518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>229015.337166185</v>
+        <v>282342.8959733526</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.918449517266</v>
+        <v>389.9897977473917</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.4596628900288</v>
+        <v>533.6012464135814</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.9414073440522</v>
+        <v>482.6750923699214</v>
       </c>
       <c r="AD2" t="n">
-        <v>340918.449517266</v>
+        <v>389989.7977473917</v>
       </c>
       <c r="AE2" t="n">
-        <v>466459.6628900288</v>
+        <v>533601.2464135814</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.946686576449102e-06</v>
+        <v>3.447726579135878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09182098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>421941.4073440522</v>
+        <v>482675.0923699214</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.9630067746551</v>
+        <v>277.9489246416611</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.2772870038938</v>
+        <v>380.3019809358514</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.3785424197687</v>
+        <v>344.0064936325155</v>
       </c>
       <c r="AD3" t="n">
-        <v>228963.0067746551</v>
+        <v>277948.9246416611</v>
       </c>
       <c r="AE3" t="n">
-        <v>313277.2870038938</v>
+        <v>380301.9809358513</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434967538187191e-06</v>
+        <v>4.312508445018566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.869598765432098</v>
       </c>
       <c r="AH3" t="n">
-        <v>283378.5424197688</v>
+        <v>344006.4936325155</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.4708900146801</v>
+        <v>254.813237846511</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.816777622723</v>
+        <v>348.6467135880965</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.6798781444434</v>
+        <v>315.3723605720885</v>
       </c>
       <c r="AD4" t="n">
-        <v>215470.8900146801</v>
+        <v>254813.237846511</v>
       </c>
       <c r="AE4" t="n">
-        <v>294816.777622723</v>
+        <v>348646.7135880966</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521898678113736e-06</v>
+        <v>4.466469953411988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.564814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>266679.8781444434</v>
+        <v>315372.3605720885</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.1986682377493</v>
+        <v>447.2118184007031</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.7822998825451</v>
+        <v>611.8949395288261</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.2206207358821</v>
+        <v>553.4965453001354</v>
       </c>
       <c r="AD2" t="n">
-        <v>387198.6682377493</v>
+        <v>447211.8184007031</v>
       </c>
       <c r="AE2" t="n">
-        <v>529782.2998825451</v>
+        <v>611894.939528826</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784181817695281e-06</v>
+        <v>3.111457296723818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>479220.6207358821</v>
+        <v>553496.5453001354</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.696563299465</v>
+        <v>305.7054195833186</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.5377596114254</v>
+        <v>418.2796418451611</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.8422260625603</v>
+        <v>378.3596198866224</v>
       </c>
       <c r="AD3" t="n">
-        <v>265696.563299465</v>
+        <v>305705.4195833186</v>
       </c>
       <c r="AE3" t="n">
-        <v>363537.7596114254</v>
+        <v>418279.641845161</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.295178159506689e-06</v>
+        <v>4.002590297048918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.220679012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>328842.2260625603</v>
+        <v>378359.6198866224</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.6679684586477</v>
+        <v>263.7620760885246</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.0323819793322</v>
+        <v>360.8909088658643</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.825080962461</v>
+        <v>326.4479870372772</v>
       </c>
       <c r="AD4" t="n">
-        <v>223667.9684586477</v>
+        <v>263762.0760885246</v>
       </c>
       <c r="AE4" t="n">
-        <v>306032.3819793322</v>
+        <v>360890.9088658643</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485821422803508e-06</v>
+        <v>4.335055501420502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.510802469135802</v>
       </c>
       <c r="AH4" t="n">
-        <v>276825.080962461</v>
+        <v>326447.9870372772</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.2568748023933</v>
+        <v>264.3509824322703</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.8381496195589</v>
+        <v>361.6966765060914</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.5539472700067</v>
+        <v>327.176853344823</v>
       </c>
       <c r="AD5" t="n">
-        <v>224256.8748023933</v>
+        <v>264350.9824322703</v>
       </c>
       <c r="AE5" t="n">
-        <v>306838.1496195589</v>
+        <v>361696.6765060914</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.483408216938991e-06</v>
+        <v>4.330847081112001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.518518518518517</v>
       </c>
       <c r="AH5" t="n">
-        <v>277553.9472700067</v>
+        <v>327176.853344823</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.9212375497574</v>
+        <v>588.2832148167028</v>
       </c>
       <c r="AB2" t="n">
-        <v>705.9061980542002</v>
+        <v>804.9150477359648</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.5355012574779</v>
+        <v>728.0950852854082</v>
       </c>
       <c r="AD2" t="n">
-        <v>515921.2375497574</v>
+        <v>588283.2148167028</v>
       </c>
       <c r="AE2" t="n">
-        <v>705906.1980542003</v>
+        <v>804915.0477359648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50551026116269e-06</v>
+        <v>2.559267664208271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>638535.5012574779</v>
+        <v>728095.0852854082</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.5792967662694</v>
+        <v>379.4331670002222</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.5260044453649</v>
+        <v>519.157198499625</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.055452442176</v>
+        <v>469.6095641165244</v>
       </c>
       <c r="AD3" t="n">
-        <v>317579.2967662694</v>
+        <v>379433.1670002223</v>
       </c>
       <c r="AE3" t="n">
-        <v>434526.0044453649</v>
+        <v>519157.198499625</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060726394608813e-06</v>
+        <v>3.503098293351924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.911265432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>393055.4524421761</v>
+        <v>469609.5641165244</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.9442432659009</v>
+        <v>318.5460290305761</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.2448903852584</v>
+        <v>435.8487301786068</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.3864306713118</v>
+        <v>394.2519390878946</v>
       </c>
       <c r="AD4" t="n">
-        <v>266944.2432659009</v>
+        <v>318546.0290305761</v>
       </c>
       <c r="AE4" t="n">
-        <v>365244.8903852584</v>
+        <v>435848.7301786068</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.278249572748603e-06</v>
+        <v>3.872873279541023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.966049382716049</v>
       </c>
       <c r="AH4" t="n">
-        <v>330386.4306713118</v>
+        <v>394251.9390878946</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.6335601958156</v>
+        <v>285.0686023457877</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.3501854138541</v>
+        <v>390.0434380686499</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.5357115779787</v>
+        <v>352.8182397687807</v>
       </c>
       <c r="AD5" t="n">
-        <v>243633.5601958156</v>
+        <v>285068.6023457877</v>
       </c>
       <c r="AE5" t="n">
-        <v>333350.1854138541</v>
+        <v>390043.4380686499</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.395454809156852e-06</v>
+        <v>4.072114413496405e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.526234567901234</v>
       </c>
       <c r="AH5" t="n">
-        <v>301535.7115779787</v>
+        <v>352818.2397687807</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.4996566630255</v>
+        <v>281.7641066124054</v>
       </c>
       <c r="AB6" t="n">
-        <v>329.0622403422266</v>
+        <v>385.5220812221733</v>
       </c>
       <c r="AC6" t="n">
-        <v>297.6570019658173</v>
+        <v>348.7283948739675</v>
       </c>
       <c r="AD6" t="n">
-        <v>240499.6566630255</v>
+        <v>281764.1066124054</v>
       </c>
       <c r="AE6" t="n">
-        <v>329062.2403422266</v>
+        <v>385522.0812221732</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.411653906871814e-06</v>
+        <v>4.099651805994303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.468364197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>297657.0019658173</v>
+        <v>348728.3948739675</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.1017227485661</v>
+        <v>337.0572032083155</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.5617313324458</v>
+        <v>461.1765353439579</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.8098748684532</v>
+        <v>417.1624940760624</v>
       </c>
       <c r="AD2" t="n">
-        <v>289101.7227485661</v>
+        <v>337057.2032083155</v>
       </c>
       <c r="AE2" t="n">
-        <v>395561.7313324459</v>
+        <v>461176.5353439579</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126818258756072e-06</v>
+        <v>3.83515661068759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38966049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>357809.8748684532</v>
+        <v>417162.4940760624</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.2769519132023</v>
+        <v>255.2323428644</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.6054700212503</v>
+        <v>349.2201515631803</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.5385620052826</v>
+        <v>315.8910704316557</v>
       </c>
       <c r="AD3" t="n">
-        <v>207276.9519132022</v>
+        <v>255232.3428644</v>
       </c>
       <c r="AE3" t="n">
-        <v>283605.4700212503</v>
+        <v>349220.1515631803</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.553258606523676e-06</v>
+        <v>4.60412947053194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.653549382716049</v>
       </c>
       <c r="AH3" t="n">
-        <v>256538.5620052827</v>
+        <v>315891.0704316557</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.4488938376466</v>
+        <v>255.4042847888443</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.8407285478173</v>
+        <v>349.4554100897473</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.7513677882616</v>
+        <v>316.1038762146346</v>
       </c>
       <c r="AD4" t="n">
-        <v>207448.8938376466</v>
+        <v>255404.2847888443</v>
       </c>
       <c r="AE4" t="n">
-        <v>283840.7285478173</v>
+        <v>349455.4100897473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55938661044674e-06</v>
+        <v>4.615179711735719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.63425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>256751.3677882616</v>
+        <v>316103.8762146346</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.8169662711369</v>
+        <v>265.9049765679286</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.7632708921566</v>
+        <v>363.8229198398818</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.0588464421999</v>
+        <v>329.1001709990377</v>
       </c>
       <c r="AD2" t="n">
-        <v>219816.9662711369</v>
+        <v>265904.9765679286</v>
       </c>
       <c r="AE2" t="n">
-        <v>300763.2708921566</v>
+        <v>363822.9198398818</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.458185836598078e-06</v>
+        <v>4.58618902984096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.363425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>272058.8464421999</v>
+        <v>329100.1709990377</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.0427463691869</v>
+        <v>240.2160080119958</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.4978461439952</v>
+        <v>328.6741397441927</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.1591043366572</v>
+        <v>297.305941144157</v>
       </c>
       <c r="AD3" t="n">
-        <v>194042.7463691868</v>
+        <v>240216.0080119958</v>
       </c>
       <c r="AE3" t="n">
-        <v>265497.8461439952</v>
+        <v>328674.1397441927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601363752089775e-06</v>
+        <v>4.853313254367554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.846450617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>240159.1043366572</v>
+        <v>297305.941144157</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.6443155419111</v>
+        <v>229.5116956364324</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.9526955085892</v>
+        <v>314.0280273110213</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.6659821127706</v>
+        <v>284.0576331256549</v>
       </c>
       <c r="AD2" t="n">
-        <v>193644.3155419111</v>
+        <v>229511.6956364324</v>
       </c>
       <c r="AE2" t="n">
-        <v>264952.6955085892</v>
+        <v>314028.0273110213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606320932644207e-06</v>
+        <v>5.012051805257962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.135802469135804</v>
       </c>
       <c r="AH2" t="n">
-        <v>239665.9821127706</v>
+        <v>284057.6331256549</v>
       </c>
     </row>
   </sheetData>
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.043151249851</v>
+        <v>231.968233654343</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0254236520391</v>
+        <v>317.3891710019335</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2089621667386</v>
+        <v>287.0979939801023</v>
       </c>
       <c r="AD2" t="n">
-        <v>190043.151249851</v>
+        <v>231968.233654343</v>
       </c>
       <c r="AE2" t="n">
-        <v>260025.4236520391</v>
+        <v>317389.1710019335</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442083399759813e-06</v>
+        <v>5.037039563055807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>235208.9621667386</v>
+        <v>287097.9939801024</v>
       </c>
     </row>
   </sheetData>
@@ -14463,28 +14463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.4245825851887</v>
+        <v>422.7153462057208</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.2535470540761</v>
+        <v>578.3777855635706</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.7963664229708</v>
+        <v>523.178221467703</v>
       </c>
       <c r="AD2" t="n">
-        <v>363424.5825851887</v>
+        <v>422715.3462057208</v>
       </c>
       <c r="AE2" t="n">
-        <v>497253.5470540761</v>
+        <v>578377.7855635706</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.863534823502928e-06</v>
+        <v>3.274157172590867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.46604938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>449796.3664229708</v>
+        <v>523178.221467703</v>
       </c>
     </row>
     <row r="3">
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.1470747111381</v>
+        <v>291.7880681004419</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.9987515634651</v>
+        <v>399.2373075560749</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.0725549231398</v>
+        <v>361.1346592560027</v>
       </c>
       <c r="AD3" t="n">
-        <v>252147.0747111381</v>
+        <v>291788.0681004419</v>
       </c>
       <c r="AE3" t="n">
-        <v>344998.7515634651</v>
+        <v>399237.3075560749</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364842419742792e-06</v>
+        <v>4.154934843714681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.035493827160495</v>
       </c>
       <c r="AH3" t="n">
-        <v>312072.5549231398</v>
+        <v>361134.6592560027</v>
       </c>
     </row>
     <row r="4">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.6477352026725</v>
+        <v>259.3739799379963</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.5317214783359</v>
+        <v>354.8869221235722</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.8493957794525</v>
+        <v>321.0170123630211</v>
       </c>
       <c r="AD4" t="n">
-        <v>219647.7352026725</v>
+        <v>259373.9799379963</v>
       </c>
       <c r="AE4" t="n">
-        <v>300531.7214783359</v>
+        <v>354886.9221235722</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500500132802618e-06</v>
+        <v>4.393280094165756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.545524691358024</v>
       </c>
       <c r="AH4" t="n">
-        <v>271849.3957794525</v>
+        <v>321017.0123630211</v>
       </c>
     </row>
     <row r="5">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.6938591695736</v>
+        <v>259.4201039048975</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.5948303246957</v>
+        <v>354.9500309699321</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.9064816060896</v>
+        <v>321.0740981896582</v>
       </c>
       <c r="AD5" t="n">
-        <v>219693.8591695736</v>
+        <v>259420.1039048975</v>
       </c>
       <c r="AE5" t="n">
-        <v>300594.8303246957</v>
+        <v>354950.0309699321</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.507645843290458e-06</v>
+        <v>4.405834825610505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.522376543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>271906.4816060896</v>
+        <v>321074.0981896583</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.6656760503535</v>
+        <v>548.2132061933979</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.877448146433</v>
+        <v>750.089494173541</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.3270390602049</v>
+        <v>678.5020056068346</v>
       </c>
       <c r="AD2" t="n">
-        <v>486665.6760503534</v>
+        <v>548213.2061933979</v>
       </c>
       <c r="AE2" t="n">
-        <v>665877.448146433</v>
+        <v>750089.494173541</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569810019653702e-06</v>
+        <v>2.684200190218727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.11728395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>602327.0390602049</v>
+        <v>678502.0056068345</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.6741453811709</v>
+        <v>355.9636792432487</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.8686069851757</v>
+        <v>487.0452099498087</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.0832522132743</v>
+        <v>440.5622986844436</v>
       </c>
       <c r="AD3" t="n">
-        <v>304674.1453811709</v>
+        <v>355963.6792432487</v>
       </c>
       <c r="AE3" t="n">
-        <v>416868.6069851757</v>
+        <v>487045.2099498087</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.114911856530291e-06</v>
+        <v>3.616263583823189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.737654320987653</v>
       </c>
       <c r="AH3" t="n">
-        <v>377083.2522132743</v>
+        <v>440562.2986844436</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.722878184091</v>
+        <v>307.9270711916004</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.259567745358</v>
+        <v>421.3194035879638</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7358475957456</v>
+        <v>381.1092710350246</v>
       </c>
       <c r="AD4" t="n">
-        <v>256722.878184091</v>
+        <v>307927.0711916004</v>
       </c>
       <c r="AE4" t="n">
-        <v>351259.567745358</v>
+        <v>421319.4035879638</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323942290647871e-06</v>
+        <v>3.973682331311934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.861882716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>317735.8475957456</v>
+        <v>381109.2710350245</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.7958922856039</v>
+        <v>276.7422680292486</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.6263424056031</v>
+        <v>378.6509801248158</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.8353370954235</v>
+        <v>342.513062021691</v>
       </c>
       <c r="AD5" t="n">
-        <v>235795.8922856039</v>
+        <v>276742.2680292486</v>
       </c>
       <c r="AE5" t="n">
-        <v>322626.342405603</v>
+        <v>378650.9801248158</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430165621570747e-06</v>
+        <v>4.155312389407595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>291835.3370954235</v>
+        <v>342513.062021691</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>236.6549379509552</v>
+        <v>277.6013136945998</v>
       </c>
       <c r="AB6" t="n">
-        <v>323.801726583356</v>
+        <v>379.8263643025694</v>
       </c>
       <c r="AC6" t="n">
-        <v>292.8985442569142</v>
+        <v>343.5762691831819</v>
       </c>
       <c r="AD6" t="n">
-        <v>236654.9379509552</v>
+        <v>277601.3136945998</v>
       </c>
       <c r="AE6" t="n">
-        <v>323801.726583356</v>
+        <v>379826.3643025694</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.428083857798892e-06</v>
+        <v>4.151752805354464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.479938271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>292898.5442569142</v>
+        <v>343576.2691831819</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.6150443418458</v>
+        <v>253.3573637963081</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.9633306470483</v>
+        <v>346.6547224839798</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.2440233011787</v>
+        <v>313.5704823031709</v>
       </c>
       <c r="AD2" t="n">
-        <v>204615.0443418458</v>
+        <v>253357.3637963081</v>
       </c>
       <c r="AE2" t="n">
-        <v>279963.3306470484</v>
+        <v>346654.7224839798</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203742732764344e-06</v>
+        <v>4.723635699196123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>253244.0233011787</v>
+        <v>313570.482303171</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.6953949605752</v>
+        <v>286.5866148359752</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.9618139994126</v>
+        <v>392.1204497277089</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.661598768703</v>
+        <v>354.6970243502033</v>
       </c>
       <c r="AD2" t="n">
-        <v>239695.3949605752</v>
+        <v>286586.6148359752</v>
       </c>
       <c r="AE2" t="n">
-        <v>327961.8139994126</v>
+        <v>392120.4497277089</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.33746601308424e-06</v>
+        <v>4.306623432206298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.702932098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>296661.5987687029</v>
+        <v>354697.0243502033</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.2997756245551</v>
+        <v>245.1056546453799</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.3225013780631</v>
+        <v>335.3643699839703</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.4278626501426</v>
+        <v>303.3576651996496</v>
       </c>
       <c r="AD3" t="n">
-        <v>198299.7756245551</v>
+        <v>245105.6546453799</v>
       </c>
       <c r="AE3" t="n">
-        <v>271322.5013780631</v>
+        <v>335364.3699839704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.589137047565607e-06</v>
+        <v>4.770310334278057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.761574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>245427.8626501426</v>
+        <v>303357.6651996496</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7536958342698</v>
+        <v>367.9509404251124</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.8186720090558</v>
+        <v>503.4467095394743</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3700127857528</v>
+        <v>455.3984621729207</v>
       </c>
       <c r="AD2" t="n">
-        <v>309753.6958342698</v>
+        <v>367950.9404251124</v>
       </c>
       <c r="AE2" t="n">
-        <v>423818.6720090559</v>
+        <v>503446.7095394743</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.033813356020297e-06</v>
+        <v>3.633259136328529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.73688271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>383370.0127857528</v>
+        <v>455398.4621729207</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.7375457510693</v>
+        <v>264.2210261010121</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.1816277652713</v>
+        <v>361.5188645203953</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.0099075014573</v>
+        <v>327.016011485481</v>
       </c>
       <c r="AD3" t="n">
-        <v>215737.5457510693</v>
+        <v>264221.0261010121</v>
       </c>
       <c r="AE3" t="n">
-        <v>295181.6277652713</v>
+        <v>361518.8645203953</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.508575452986825e-06</v>
+        <v>4.481386975237713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.703703703703702</v>
       </c>
       <c r="AH3" t="n">
-        <v>267009.9075014574</v>
+        <v>327016.0114854811</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.2300136085137</v>
+        <v>259.7134939584565</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.0142234295464</v>
+        <v>355.3514601846672</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.4311115795258</v>
+        <v>321.4372155635485</v>
       </c>
       <c r="AD4" t="n">
-        <v>211230.0136085137</v>
+        <v>259713.4939584565</v>
       </c>
       <c r="AE4" t="n">
-        <v>289014.2234295464</v>
+        <v>355351.4601846673</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543610948697636e-06</v>
+        <v>4.54397533149484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.584104938271604</v>
       </c>
       <c r="AH4" t="n">
-        <v>261431.1115795258</v>
+        <v>321437.2155635486</v>
       </c>
     </row>
   </sheetData>
